--- a/medicine/Psychotrope/Coteaux-de-miramont/Coteaux-de-miramont.xlsx
+++ b/medicine/Psychotrope/Coteaux-de-miramont/Coteaux-de-miramont.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le coteaux-de-miramont, appelé vin de pays des coteaux de Miramont jusqu'en 2009, est un vin français d'indication géographique protégée (le nouveau nom des vins de pays) de zone du vignoble du Languedoc-Roussillon, produit autour de Carcassonne, dans l'Aude.
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -535,49 +549,21 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Situation géographique</t>
+          <t>Vignoble</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Orographie et géologie
-Climat</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Coteaux-de-miramont</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Coteaux-de-miramont</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Vignoble</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Présentation
-Pour avoir droit à la dénomination “ Vin de pays des Coteaux de Miramont ”, 
+          <t>Présentation</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Pour avoir droit à la dénomination “ Vin de pays des Coteaux de Miramont ”, 
 les vins doivent être issus de vendanges récoltées sur le territoire des communes suivantes :
 Arrondissement de Carcassonne
-Canton de la Montagne d'Alaric : Barbaira, Capendu, Comigne, Douzens, Floure, Fontiès-d'Aude, Marseillette, Moux, Saint-Couat-d'Aude.
-Encépagement
-Types de vin et gastronomie</t>
+Canton de la Montagne d'Alaric : Barbaira, Capendu, Comigne, Douzens, Floure, Fontiès-d'Aude, Marseillette, Moux, Saint-Couat-d'Aude.</t>
         </is>
       </c>
     </row>
